--- a/data/ChedrahuiQA_Lexico.xlsx
+++ b/data/ChedrahuiQA_Lexico.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atcon\Desktop\Playwright\playwright-piloto2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0562B9F-5453-4E85-8A29-85A102F071DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476C8AC7-A039-450B-85FA-07EBC923D59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados Vacíos" sheetId="4" r:id="rId1"/>
     <sheet name="Bajo CTR" sheetId="3" r:id="rId2"/>
     <sheet name="Semánticos" sheetId="5" r:id="rId3"/>
-    <sheet name="Long Tail" sheetId="6" r:id="rId4"/>
-    <sheet name="Frecuencia Alta" sheetId="1" r:id="rId5"/>
+    <sheet name="Frecuencia Alta" sheetId="1" r:id="rId4"/>
+    <sheet name="Long Tail" sheetId="6" r:id="rId5"/>
     <sheet name="Errores Ortográficos" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Bajo CTR'!$A$1:$P$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Errores Ortográficos'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Frecuencia Alta'!$A$1:$A$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Long Tail'!$A$1:$A$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Frecuencia Alta'!$A$1:$A$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Long Tail'!$A$1:$A$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Resultados Vacíos'!$A$1:$M$102</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Semánticos!$B$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Semánticos!$B$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="597">
   <si>
     <t>QA que ejecuta</t>
   </si>
@@ -1488,51 +1488,358 @@
     <t xml:space="preserve">maquillaje </t>
   </si>
   <si>
-    <t>cepillo de dientes</t>
-  </si>
-  <si>
     <t>papel Higiénico</t>
   </si>
   <si>
     <t>desodorante, antitranspirante</t>
   </si>
   <si>
-    <t>jitomate saladet, tomate saladet</t>
-  </si>
-  <si>
     <t>mayonesa, mccormick</t>
   </si>
   <si>
-    <t>jamón serrano, jamón</t>
-  </si>
-  <si>
-    <t>aromatizante,  bloqueador de olores, Tiras Activas</t>
-  </si>
-  <si>
-    <r>
-      <t>carro,carrito,vehículo, figura, play-doh, muñeca</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, mini, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>cepillo de dientes, cepillo</t>
+  </si>
+  <si>
+    <t>mantequilla, margarina</t>
+  </si>
+  <si>
+    <t>aromatizante, ambientador, bloqueador de olores, tiras activas, Glade, Air Wick, Poett</t>
+  </si>
+  <si>
+    <t>juguetes, juguete, carro, carrito, muñeca, play-doh, figura, peluche, Mattel, Hasbro, Lego</t>
+  </si>
+  <si>
+    <t>jitomate saladet, tomate saladet, tomate</t>
+  </si>
+  <si>
+    <t>celular, teléfono, smartphone, Samsung, Xiaomi, iPhone, Motorola</t>
+  </si>
+  <si>
+    <t>jamón serrano, jamón ibérico, jamón</t>
+  </si>
+  <si>
+    <t>suavitel, suavizante, aromatizante de ropa, Downy, Ensueño</t>
+  </si>
+  <si>
+    <t>cerveza, Corona, Modelo, Victoria, Heineken</t>
+  </si>
+  <si>
+    <t>lavadora, centro de lavado, Mabe, Whirlpool, LG, Samsung</t>
+  </si>
+  <si>
+    <t>pañales, pañal, Huggies, Pampers, KleenBebé</t>
+  </si>
+  <si>
+    <t>refrigerador, nevera, frigobar</t>
+  </si>
+  <si>
+    <t>mochila, backpack, Totto, Kipling, Samsonite</t>
+  </si>
+  <si>
+    <t>aguacate hass, palta, aguacate</t>
+  </si>
+  <si>
+    <t>suavizante, suavitel, aromatizante de ropa, Downy, Ensueño, detergente</t>
+  </si>
+  <si>
+    <t>mascarilla capilar, acondicionador, aceite capilar, serum capilar, keratina, tratamiento leave-in</t>
+  </si>
+  <si>
+    <t>jabón, shampoo, acondicionador, papel higiénico, pasta dental, cepillo dental, hilo dental, enjuague bucal, cotonetes, crema corporal</t>
+  </si>
+  <si>
+    <t>café molido, café instantáneo, cápsulas de café, café instantáneo soluble, café descafeinado</t>
+  </si>
+  <si>
+    <t>leche de crecimiento, fórmula infantil, leche fortificada, leche en polvo, leche para niños</t>
+  </si>
+  <si>
+    <t>galletas, pan dulce, muffins, bizcocho, barritas, panque</t>
+  </si>
+  <si>
+    <t>refrigerador, congelador, frigobar, nevera, freezer</t>
+  </si>
+  <si>
+    <t>desodorante, antitranspirante, roll-on, spray corporal, stick desodorante</t>
+  </si>
+  <si>
+    <t>pañales, toallitas húmedas, crema para rozaduras, shampoo para bebé, jabón para bebé, termómetro para bebé</t>
+  </si>
+  <si>
+    <t>huevos, yogurt griego, pechuga de pollo, atún en lata, proteína en polvo, claras de huevo pasteurizadas</t>
+  </si>
+  <si>
+    <t>lavadora automática, lavadora de carga frontal, lavadora de carga superior, centro de lavado</t>
+  </si>
+  <si>
+    <t>gelatina, yogurt para niños, postres individuales, compotas, natillas</t>
+  </si>
+  <si>
+    <t>cerveza, refresco, bebidas energéticas, agua saborizada, sidra</t>
+  </si>
+  <si>
+    <t>avena instantánea, barras de granola, cereal integral, yogurt, licuados proteicos</t>
+  </si>
+  <si>
+    <t>cerveza, vino, tequila, ron, refresco, sidra, champaña</t>
+  </si>
+  <si>
+    <t>detergente para ropa blanca, blanqueador, cloro, quitamanchas para ropa blanca</t>
+  </si>
+  <si>
+    <t>tomate, cebolla, chile jalapeño, cilantro, ajo, sal, aceite vegetal</t>
+  </si>
+  <si>
+    <t>suavizante de telas, suavizante aroma intenso, perlas aromáticas, suavizante líquido</t>
+  </si>
+  <si>
+    <t>gelatina light, yogurt light, postre sin azúcar, mousse light</t>
+  </si>
+  <si>
+    <t>agua embotellada, agua de coco, bebidas isotónicas, bebidas rehidratantes</t>
+  </si>
+  <si>
+    <t>pechuga de pollo, muslo de pollo, filete de pollo, empanizados de pollo</t>
+  </si>
+  <si>
+    <t>pan de caja, pan para sándwich, pan artesanal, pan integral</t>
+  </si>
+  <si>
+    <t>smart tv, televisor led con smart, televisor 4k, televisor con wifi</t>
+  </si>
+  <si>
+    <t>sándwich preparado, sándwich frío, wrap, bocadillo listo</t>
+  </si>
+  <si>
+    <t>base líquida, base en polvo de larga duración, primer, corrector</t>
+  </si>
+  <si>
+    <t>cuadernos, lápices, plumas, reglas, pegamento, tijeras, colores, mochilas escolares</t>
+  </si>
+  <si>
+    <t>aderezo ranch, aderezo italiano, mayonesa, mostaza, vinagreta, aceite de oliva</t>
+  </si>
+  <si>
+    <t>atún en lata, frijoles enlatados, sopa en lata, vegetales enlatados</t>
+  </si>
+  <si>
+    <t>smartphone gama media-alta, móvil con buena cámara, celular con zoom óptico</t>
+  </si>
+  <si>
+    <t>juguete educativo, juguete para 5 años, peluche, set de construcción, libro infantil</t>
+  </si>
+  <si>
+    <t>limpiador multiusos, limpiador con cloro, paños de microfibra, limpiador en spray</t>
+  </si>
+  <si>
+    <t>pasta dental blanqueadora, enjuague bucal blanqueador, cepillo dental blanqueador</t>
+  </si>
+  <si>
+    <t>queso Oaxaca, queso manchego para fundir, queso chihuahua, queso para gratinar</t>
+  </si>
+  <si>
+    <t>puré instantáneo, papas en bolsa, vegetales para guarnición, arroz para acompañar</t>
+  </si>
+  <si>
+    <t>desinfectante líquido, cloro, limpiador antibacterial, limpiador en spray</t>
+  </si>
+  <si>
+    <t>sal, pimienta, comino, orégano, paprika, condimento completo, sazonador en polvo</t>
+  </si>
+  <si>
+    <t>aguacate, limón, cebolla, chile serrano, cilantro, sal — (ingredientes para guacamole)</t>
+  </si>
+  <si>
+    <t>crema corporal, loción hidratante, aceite corporal, manteca corporal</t>
+  </si>
+  <si>
+    <t>manteca vegetal, manteca de cerdo, aceite para repostería, crema para hornear</t>
+  </si>
+  <si>
+    <t>spray antiarrugas, plancha de vapor, producto antiarrugas para ropa, ajuga antiarrugas</t>
+  </si>
+  <si>
+    <t>mochila para laptop, funda para laptop, estuche para laptop, bolsa mensajero</t>
+  </si>
+  <si>
+    <t>pasta dental para encías sensibles, cepillo dental de cerdas suaves, enjuague para encías</t>
+  </si>
+  <si>
+    <t>servilletas, servilletas de papel, toallas de papel, rollos de cocina</t>
+  </si>
+  <si>
+    <t>ambientador, neutralizador de olores, carbón activado, spray ambientador</t>
+  </si>
+  <si>
+    <t>lavatrastes líquido, desengrasante, esponja, estropajo, detergente para platos</t>
+  </si>
+  <si>
+    <t>jabón hipoalergénico, gel de baño suave, jabón neutro, jabón para piel sensible</t>
+  </si>
+  <si>
+    <t>colchón ortopédico, colchón con soporte lumbar, base para colchón ortopédico</t>
+  </si>
+  <si>
+    <t>ollas y sartenes, cazuelas, batería de cocina, sartén antiadherente</t>
+  </si>
+  <si>
+    <t>edulcorante, azúcar morena, azúcar blanca, stevia</t>
+  </si>
+  <si>
+    <t>refresco, bebida gaseosa, cola, refresco sabor naranja</t>
+  </si>
+  <si>
+    <t>frutos secos, barras de avena, mix de frutos secos, snacks saludables</t>
+  </si>
+  <si>
+    <t>jabón líquido humectante, gel de baño hidratante, jabón en crema</t>
+  </si>
+  <si>
+    <t>suavizante aroma bebé, perlas aromáticas bebé, suavizante suave</t>
+  </si>
+  <si>
+    <t>jabón antibacterial para manos, gel antibacterial, jabón espuma antibacterial</t>
+  </si>
+  <si>
+    <t>ventilador, aire portátil, enfriador evaporativo, mini aire acondicionado</t>
+  </si>
+  <si>
+    <t>chocolates, barras de chocolate, dulces, bombones</t>
+  </si>
+  <si>
+    <t>agua embotellada, bebidas isotónicas, bebidas rehidratantes</t>
+  </si>
+  <si>
+    <t>refresco de cola, refresco sabor fruta, bebida gaseosa</t>
+  </si>
+  <si>
+    <t>monitor 4k, monitor hd, monitor ips, monitor gaming</t>
+  </si>
+  <si>
+    <t>lápices de colores, cajas de colores, crayones, marcadores lavables</t>
+  </si>
+  <si>
+    <t>plátano, banana, frutas ricas en potasio, dátiles (alternativa)</t>
+  </si>
+  <si>
+    <t>lechuga, espinaca, mezcla para ensalada, hojas verdes</t>
+  </si>
+  <si>
+    <t>arrachera, costilla, bistec para asar, cortes para parrilla</t>
+  </si>
+  <si>
+    <t>nuggets de pollo, pechuga empanizada, croquetas de pollo</t>
+  </si>
+  <si>
+    <t>mini refrigerador, frigobar, nevera pequeña</t>
+  </si>
+  <si>
+    <t>cuadernos universitarios, cuadernos de espiral, libretas profesionales</t>
+  </si>
+  <si>
+    <t>crema para piel extra seca, manteca corporal, emulsión reparadora</t>
+  </si>
+  <si>
+    <t>estufa de gas con horno, cocina empotrada, estufa de cuatro quemadores</t>
+  </si>
+  <si>
+    <t>rímel a prueba de agua, máscara de pestañas waterproof, rimel resistente</t>
+  </si>
+  <si>
+    <t>limpiador de pisos concentrado, limpiador con aroma duradero, detergente para pisos</t>
+  </si>
+  <si>
+    <t>mochila ergonómica escolar, mochila con soporte lumbar, mochila primaria</t>
+  </si>
+  <si>
+    <t>papas fritas para compartir, botana salada, bolsa de botana grande</t>
+  </si>
+  <si>
+    <t>galletas para niños, galletas integrales, galletas con chispas de chocolate</t>
+  </si>
+  <si>
+    <t>toallas sanitarias para flujo abundante, compresas nocturnas, protectores</t>
+  </si>
+  <si>
+    <t>licuadora de vaso, extractor de jugos, licuadora portátil, smoothie maker</t>
+  </si>
+  <si>
+    <t>motocicleta de reparto, motocicleta utilitaria, motocicleta urbana (modelo reparto)</t>
+  </si>
+  <si>
+    <t>toallitas húmedas para bebé, toallitas biodegradables, toallitas sin alcohol</t>
+  </si>
+  <si>
+    <t>zanahoria, espinaca, brócoli, verduras ricas en vitamina a</t>
+  </si>
+  <si>
+    <t>yogurt natural, postre natural, postre saludable, fruta fresca para postre</t>
+  </si>
+  <si>
+    <t>loción corporal con protector solar, crema hidratante con SPF, leche solar corporal</t>
+  </si>
+  <si>
+    <t>labial rojo, lápiz labial de larga duración, brillo labial rojo</t>
+  </si>
+  <si>
+    <t>whisky, bourbon, ron oscuro, bebidas para servir con hielo</t>
+  </si>
+  <si>
+    <t>mezcla para brownies, chocolate para repostería, cacao en polvo, recetas rápidas</t>
+  </si>
+  <si>
+    <t>papas fritas congeladas, papas para freír, papas a la francesa congeladas</t>
+  </si>
+  <si>
+    <t>refrigerador con dispensador, refrigerador con despachador de agua, nevera con hielo</t>
+  </si>
+  <si>
+    <t>helado gourmet, sabores exóticos, helado artesanal, paletas exóticas</t>
+  </si>
+  <si>
+    <t>queso mozzarella, queso para gratinar, queso para lasaña, queso para horno</t>
+  </si>
+  <si>
+    <t>pasta seca, pasta fresca, salsa para pasta, spaghetti, penne</t>
+  </si>
+  <si>
+    <t>limpiador facial para piel grasa, gel limpiador facial, toallitas para piel grasa</t>
+  </si>
+  <si>
+    <t>ron blanco, ron añejo (según receta), licor para cocteles</t>
+  </si>
+  <si>
+    <t>crema anti estrías, aceite prenatal, gel reafirmante para embarazo</t>
+  </si>
+  <si>
+    <t>bocina bluetooth portátil, parlante portátil, parlante inalámbrico</t>
+  </si>
+  <si>
+    <t>smartphone gama alta, móvil con cámara top, celular flagship</t>
+  </si>
+  <si>
+    <t>barra de sonido, soundbar, sistema de audio para TV</t>
+  </si>
+  <si>
+    <t>quitamanchas líquido para color, pretratamiento para ropa, removedor de manchas</t>
+  </si>
+  <si>
+    <t>baterías recargables, pilas recargables, cargador de baterías</t>
+  </si>
+  <si>
+    <t>audífonos con cancelación de ruido, auriculares ANC, cascos con cancelación</t>
+  </si>
+  <si>
+    <t>café instantáneo, café en polvo, sobres de café instantáneo</t>
+  </si>
+  <si>
+    <t>jarabe de maple, miel, sirope para pancakes, acompañamiento para hotcakes</t>
+  </si>
+  <si>
+    <t>caldo de pollo en cubo, consomé de pollo, caldo en polvo, caldo instantáneo</t>
+  </si>
+  <si>
+    <t>manzana, plátano, naranja, mandarina, limón, guayaba, papaya, melón, sandía, uva, piña, fresas, mango, durazno, pera, ciruela, toronja, kiwi, arándanos, zarzamoras, tomate, jitomate, cebolla, ajo, papa, zanahoria, calabacita, pepino, lechuga, espinaca, acelga, brócoli, coliflor, chile jalapeño, chile serrano, chile poblano, nopales, champiñones, ejotes, elote, aguacate, cebollín, cilantro, perejil</t>
   </si>
 </sst>
 </file>
@@ -1704,8 +2011,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2042,7 +2351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CF1A1E-23EA-440E-B96D-E9DFBACBA6A8}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -11506,20 +11815,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F432B-03FC-452D-80AF-E56229A83A73}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="12" width="12.109375" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="43" customWidth="1"/>
+    <col min="4" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11527,48 +11836,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
+      <c r="C2" s="9" t="s">
+        <v>497</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -11597,61 +11909,67 @@
       <c r="L2" s="9">
         <v>0</v>
       </c>
-      <c r="M2" s="10">
-        <f>AVERAGE(C2:L2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10">
+        <f>AVERAGE(D2:M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="9">
-        <v>1</v>
+      <c r="C3" s="9" t="s">
+        <v>498</v>
       </c>
       <c r="D3" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9">
         <v>5</v>
       </c>
       <c r="H3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" s="9">
         <v>1</v>
       </c>
       <c r="J3" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K3" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" s="9">
-        <v>5</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
+      <c r="C4" s="9" t="s">
+        <v>499</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -11680,20 +11998,23 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="10">
-        <f t="shared" ref="M4:M40" si="0">AVERAGE(C4:L4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N40" si="0">AVERAGE(D4:M4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="9">
-        <v>2</v>
+      <c r="C5" s="9" t="s">
+        <v>500</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -11722,20 +12043,23 @@
       <c r="L5" s="9">
         <v>2</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C6" s="9">
-        <v>1</v>
+      <c r="C6" s="9" t="s">
+        <v>501</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -11764,20 +12088,23 @@
       <c r="L6" s="9">
         <v>1</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="9">
-        <v>1</v>
+      <c r="C7" s="21" t="s">
+        <v>502</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -11806,20 +12133,23 @@
       <c r="L7" s="9">
         <v>1</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
+      <c r="C8" s="9" t="s">
+        <v>503</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -11848,20 +12178,23 @@
       <c r="L8" s="9">
         <v>0</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
+      <c r="C9" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -11890,20 +12223,23 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="9">
-        <v>1</v>
+      <c r="C10" s="9" t="s">
+        <v>505</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -11932,20 +12268,23 @@
       <c r="L10" s="9">
         <v>1</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="9">
-        <v>1</v>
+      <c r="C11" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -11974,20 +12313,23 @@
       <c r="L11" s="9">
         <v>1</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C12" s="9">
-        <v>3</v>
+      <c r="C12" s="9" t="s">
+        <v>507</v>
       </c>
       <c r="D12" s="9">
         <v>3</v>
@@ -11999,7 +12341,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -12016,19 +12358,22 @@
       <c r="L12" s="9">
         <v>1</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C13" s="9">
-        <v>1</v>
+      <c r="C13" s="9" t="s">
+        <v>508</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
@@ -12037,16 +12382,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="9">
         <v>5</v>
@@ -12057,69 +12402,75 @@
       <c r="L13" s="9">
         <v>5</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
+        <v>5</v>
+      </c>
+      <c r="N13" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
+      <c r="C14" s="9" t="s">
+        <v>509</v>
       </c>
       <c r="D14" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="9">
         <v>5</v>
       </c>
       <c r="F14" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="9">
+        <v>5</v>
+      </c>
+      <c r="I14" s="9">
         <v>4</v>
       </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
       <c r="J14" s="9">
         <v>1</v>
       </c>
       <c r="K14" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" s="9">
         <v>4</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
+        <v>4</v>
+      </c>
+      <c r="N14" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="9">
-        <v>1</v>
+      <c r="C15" s="9" t="s">
+        <v>510</v>
       </c>
       <c r="D15" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G15" s="9">
         <v>5</v>
@@ -12139,19 +12490,22 @@
       <c r="L15" s="9">
         <v>5</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
+        <v>5</v>
+      </c>
+      <c r="N15" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
+      <c r="C16" s="9" t="s">
+        <v>511</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -12180,20 +12534,23 @@
       <c r="L16" s="9">
         <v>1</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C17" s="9">
-        <v>1</v>
+      <c r="C17" s="9" t="s">
+        <v>512</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -12222,19 +12579,22 @@
       <c r="L17" s="9">
         <v>1</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
+      <c r="C18" s="9" t="s">
+        <v>513</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -12263,20 +12623,23 @@
       <c r="L18" s="9">
         <v>0</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="9">
-        <v>5</v>
+      <c r="C19" s="9" t="s">
+        <v>514</v>
       </c>
       <c r="D19" s="9">
         <v>5</v>
@@ -12294,30 +12657,33 @@
         <v>5</v>
       </c>
       <c r="I19" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" s="9">
         <v>3</v>
       </c>
       <c r="K19" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19" s="9">
-        <v>3</v>
-      </c>
-      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="M19" s="9">
+        <v>3</v>
+      </c>
+      <c r="N19" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="9">
-        <v>5</v>
+      <c r="C20" s="9" t="s">
+        <v>515</v>
       </c>
       <c r="D20" s="9">
         <v>5</v>
@@ -12346,19 +12712,22 @@
       <c r="L20" s="9">
         <v>5</v>
       </c>
-      <c r="M20" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="9">
+        <v>5</v>
+      </c>
+      <c r="N20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
+      <c r="C21" s="9" t="s">
+        <v>516</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -12387,61 +12756,67 @@
       <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C22" s="9">
-        <v>5</v>
+      <c r="C22" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="D22" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" s="9">
         <v>2</v>
       </c>
       <c r="F22" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22" s="9">
         <v>5</v>
       </c>
       <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="I22" s="9">
         <v>2</v>
       </c>
-      <c r="I22" s="9">
-        <v>5</v>
-      </c>
       <c r="J22" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K22" s="9">
         <v>1</v>
       </c>
       <c r="L22" s="9">
-        <v>5</v>
-      </c>
-      <c r="M22" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="M22" s="9">
+        <v>5</v>
+      </c>
+      <c r="N22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
+      <c r="C23" s="9" t="s">
+        <v>518</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -12470,29 +12845,32 @@
       <c r="L23" s="9">
         <v>0</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="9">
-        <v>1</v>
+      <c r="C24" s="9" t="s">
+        <v>519</v>
       </c>
       <c r="D24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9">
         <v>2</v>
       </c>
       <c r="F24" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -12512,19 +12890,22 @@
       <c r="L24" s="9">
         <v>1</v>
       </c>
-      <c r="M24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="9">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C25" s="9">
-        <v>0</v>
+      <c r="C25" s="9" t="s">
+        <v>520</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
@@ -12553,20 +12934,23 @@
       <c r="L25" s="9">
         <v>0</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C26" s="9">
-        <v>0</v>
+      <c r="C26" s="9" t="s">
+        <v>521</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
@@ -12595,20 +12979,23 @@
       <c r="L26" s="9">
         <v>0</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C27" s="9">
-        <v>5</v>
+      <c r="C27" s="9" t="s">
+        <v>522</v>
       </c>
       <c r="D27" s="9">
         <v>5</v>
@@ -12623,7 +13010,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
@@ -12632,24 +13019,27 @@
         <v>1</v>
       </c>
       <c r="K27" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L27" s="9">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10">
+        <v>5</v>
+      </c>
+      <c r="M27" s="9">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C28" s="9">
-        <v>1</v>
+      <c r="C28" s="9" t="s">
+        <v>523</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -12678,20 +13068,23 @@
       <c r="L28" s="9">
         <v>1</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C29" s="9">
-        <v>1</v>
+      <c r="C29" s="9" t="s">
+        <v>524</v>
       </c>
       <c r="D29" s="9">
         <v>1</v>
@@ -12720,20 +13113,23 @@
       <c r="L29" s="9">
         <v>1</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
+      <c r="C30" s="9" t="s">
+        <v>525</v>
       </c>
       <c r="D30" s="9">
         <v>0</v>
@@ -12762,23 +13158,26 @@
       <c r="L30" s="9">
         <v>0</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C31" s="9">
-        <v>3</v>
+      <c r="C31" s="9" t="s">
+        <v>526</v>
       </c>
       <c r="D31" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="9">
         <v>5</v>
@@ -12804,19 +13203,22 @@
       <c r="L31" s="9">
         <v>5</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
+        <v>5</v>
+      </c>
+      <c r="N31" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C32" s="9">
-        <v>0</v>
+      <c r="C32" s="9" t="s">
+        <v>527</v>
       </c>
       <c r="D32" s="9">
         <v>0</v>
@@ -12845,20 +13247,23 @@
       <c r="L32" s="9">
         <v>0</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C33" s="9">
-        <v>0</v>
+      <c r="C33" s="9" t="s">
+        <v>528</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -12887,64 +13292,70 @@
       <c r="L33" s="9">
         <v>0</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C34" s="9">
-        <v>5</v>
+      <c r="C34" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="D34" s="9">
         <v>5</v>
       </c>
       <c r="E34" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F34" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G34" s="9">
         <v>5</v>
       </c>
       <c r="H34" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34" s="9">
         <v>1</v>
       </c>
       <c r="J34" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K34" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
       </c>
-      <c r="M34" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C35" s="13">
-        <v>5</v>
+      <c r="C35" s="13" t="s">
+        <v>530</v>
       </c>
       <c r="D35" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="13">
         <v>0</v>
@@ -12970,20 +13381,23 @@
       <c r="L35" s="13">
         <v>0</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C36" s="13">
-        <v>0</v>
+      <c r="C36" s="13" t="s">
+        <v>531</v>
       </c>
       <c r="D36" s="13">
         <v>0</v>
@@ -13012,33 +13426,36 @@
       <c r="L36" s="13">
         <v>0</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="13">
+        <v>0</v>
+      </c>
+      <c r="N36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D37" s="13">
         <v>2</v>
       </c>
-      <c r="D37" s="13">
-        <v>1</v>
-      </c>
       <c r="E37" s="13">
         <v>1</v>
       </c>
       <c r="F37" s="13">
+        <v>1</v>
+      </c>
+      <c r="G37" s="13">
         <v>2</v>
       </c>
-      <c r="G37" s="13">
-        <v>1</v>
-      </c>
       <c r="H37" s="13">
         <v>1</v>
       </c>
@@ -13046,37 +13463,40 @@
         <v>1</v>
       </c>
       <c r="J37" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="13">
         <v>2</v>
       </c>
       <c r="L37" s="13">
-        <v>1</v>
-      </c>
-      <c r="M37" s="7">
+        <v>2</v>
+      </c>
+      <c r="M37" s="13">
+        <v>1</v>
+      </c>
+      <c r="N37" s="7">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C38" s="13">
-        <v>4</v>
+      <c r="C38" s="13" t="s">
+        <v>533</v>
       </c>
       <c r="D38" s="13">
         <v>4</v>
       </c>
       <c r="E38" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="13">
         <v>0</v>
@@ -13099,20 +13519,23 @@
       <c r="L38" s="13">
         <v>0</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="C39" s="13">
-        <v>1</v>
+      <c r="C39" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="D39" s="13">
         <v>1</v>
@@ -13141,23 +13564,26 @@
       <c r="L39" s="13">
         <v>1</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="13">
+        <v>1</v>
+      </c>
+      <c r="N39" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C40" s="13">
-        <v>0</v>
+      <c r="C40" s="13" t="s">
+        <v>535</v>
       </c>
       <c r="D40" s="13">
         <v>0</v>
@@ -13186,23 +13612,26 @@
       <c r="L40" s="13">
         <v>0</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C41" s="13">
-        <v>1</v>
+      <c r="C41" s="13" t="s">
+        <v>536</v>
       </c>
       <c r="D41" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" s="13">
         <v>2</v>
@@ -13228,22 +13657,25 @@
       <c r="L41" s="13">
         <v>2</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="13">
+        <v>2</v>
+      </c>
+      <c r="N41" s="7">
         <v>4</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C42" s="13">
-        <v>5</v>
+      <c r="C42" s="13" t="s">
+        <v>537</v>
       </c>
       <c r="D42" s="13">
         <v>5</v>
@@ -13272,20 +13704,23 @@
       <c r="L42" s="13">
         <v>5</v>
       </c>
-      <c r="M42" s="7">
-        <f t="shared" ref="M42:M77" si="1">AVERAGE(C42:L42)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M42" s="13">
+        <v>5</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" ref="N42:N77" si="1">AVERAGE(D42:M42)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="C43" s="13">
-        <v>0</v>
+      <c r="C43" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="D43" s="13">
         <v>0</v>
@@ -13314,20 +13749,23 @@
       <c r="L43" s="13">
         <v>0</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C44" s="13">
-        <v>0</v>
+      <c r="C44" s="13" t="s">
+        <v>539</v>
       </c>
       <c r="D44" s="13">
         <v>0</v>
@@ -13356,20 +13794,23 @@
       <c r="L44" s="13">
         <v>0</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="13">
+        <v>0</v>
+      </c>
+      <c r="N44" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="C45" s="13">
-        <v>0</v>
+      <c r="C45" s="13" t="s">
+        <v>540</v>
       </c>
       <c r="D45" s="13">
         <v>0</v>
@@ -13398,20 +13839,23 @@
       <c r="L45" s="13">
         <v>0</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="13">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C46" s="13">
-        <v>0</v>
+      <c r="C46" s="13" t="s">
+        <v>541</v>
       </c>
       <c r="D46" s="13">
         <v>0</v>
@@ -13440,20 +13884,23 @@
       <c r="L46" s="13">
         <v>0</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="13">
+        <v>0</v>
+      </c>
+      <c r="N46" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C47" s="13">
-        <v>0</v>
+      <c r="C47" s="13" t="s">
+        <v>542</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
@@ -13482,20 +13929,23 @@
       <c r="L47" s="13">
         <v>0</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="13">
+        <v>0</v>
+      </c>
+      <c r="N47" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C48" s="13">
-        <v>5</v>
+      <c r="C48" s="13" t="s">
+        <v>543</v>
       </c>
       <c r="D48" s="13">
         <v>5</v>
@@ -13510,7 +13960,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48" s="13">
         <v>3</v>
@@ -13519,25 +13969,28 @@
         <v>3</v>
       </c>
       <c r="K48" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L48" s="13">
         <v>5</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="13">
+        <v>5</v>
+      </c>
+      <c r="N48" s="7">
         <f t="shared" si="1"/>
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C49" s="13">
-        <v>1</v>
+      <c r="C49" s="13" t="s">
+        <v>544</v>
       </c>
       <c r="D49" s="13">
         <v>1</v>
@@ -13566,20 +14019,23 @@
       <c r="L49" s="13">
         <v>1</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="13">
+        <v>1</v>
+      </c>
+      <c r="N49" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C50" s="13">
-        <v>5</v>
+      <c r="C50" s="13" t="s">
+        <v>545</v>
       </c>
       <c r="D50" s="13">
         <v>5</v>
@@ -13608,20 +14064,23 @@
       <c r="L50" s="13">
         <v>5</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="13">
+        <v>5</v>
+      </c>
+      <c r="N50" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C51" s="13">
-        <v>5</v>
+      <c r="C51" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="D51" s="13">
         <v>5</v>
@@ -13650,23 +14109,26 @@
       <c r="L51" s="13">
         <v>5</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="13">
+        <v>5</v>
+      </c>
+      <c r="N51" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N51" t="s">
+      <c r="O51" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C52" s="13">
-        <v>5</v>
+      <c r="C52" s="13" t="s">
+        <v>547</v>
       </c>
       <c r="D52" s="13">
         <v>5</v>
@@ -13678,7 +14140,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H52" s="13">
         <v>0</v>
@@ -13695,23 +14157,26 @@
       <c r="L52" s="13">
         <v>0</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="13">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C53" s="13">
-        <v>3</v>
+      <c r="C53" s="13" t="s">
+        <v>548</v>
       </c>
       <c r="D53" s="13">
         <v>3</v>
@@ -13726,10 +14191,10 @@
         <v>3</v>
       </c>
       <c r="H53" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I53" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53" s="13">
         <v>3</v>
@@ -13740,23 +14205,26 @@
       <c r="L53" s="13">
         <v>3</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="13">
+        <v>3</v>
+      </c>
+      <c r="N53" s="7">
         <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
-      <c r="N53" t="s">
+      <c r="O53" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C54" s="13">
-        <v>5</v>
+      <c r="C54" s="13" t="s">
+        <v>549</v>
       </c>
       <c r="D54" s="13">
         <v>5</v>
@@ -13785,23 +14253,26 @@
       <c r="L54" s="13">
         <v>5</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="13">
+        <v>5</v>
+      </c>
+      <c r="N54" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="C55" s="13">
-        <v>1</v>
+      <c r="C55" s="13" t="s">
+        <v>550</v>
       </c>
       <c r="D55" s="13">
         <v>1</v>
@@ -13830,23 +14301,26 @@
       <c r="L55" s="13">
         <v>1</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="13">
+        <v>1</v>
+      </c>
+      <c r="N55" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C56" s="13">
-        <v>0</v>
+      <c r="C56" s="13" t="s">
+        <v>551</v>
       </c>
       <c r="D56" s="13">
         <v>0</v>
@@ -13875,20 +14349,23 @@
       <c r="L56" s="13">
         <v>0</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="13">
+        <v>0</v>
+      </c>
+      <c r="N56" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="C57" s="13">
-        <v>5</v>
+      <c r="C57" s="13" t="s">
+        <v>552</v>
       </c>
       <c r="D57" s="13">
         <v>5</v>
@@ -13917,35 +14394,38 @@
       <c r="L57" s="13">
         <v>5</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="13">
+        <v>5</v>
+      </c>
+      <c r="N57" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="N57" t="s">
+      <c r="O57" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="13">
-        <v>2</v>
+      <c r="C58" s="13" t="s">
+        <v>553</v>
       </c>
       <c r="D58" s="13">
         <v>2</v>
       </c>
       <c r="E58" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" s="13">
         <v>4</v>
       </c>
       <c r="G58" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H58" s="13">
         <v>5</v>
@@ -13962,23 +14442,26 @@
       <c r="L58" s="13">
         <v>5</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="13">
+        <v>5</v>
+      </c>
+      <c r="N58" s="7">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="N58" t="s">
+      <c r="O58" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C59" s="13">
-        <v>0</v>
+      <c r="C59" s="13" t="s">
+        <v>554</v>
       </c>
       <c r="D59" s="13">
         <v>0</v>
@@ -14007,23 +14490,26 @@
       <c r="L59" s="13">
         <v>0</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="13">
+        <v>0</v>
+      </c>
+      <c r="N59" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C60" s="13">
-        <v>1</v>
+      <c r="C60" s="13" t="s">
+        <v>555</v>
       </c>
       <c r="D60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="13">
         <v>0</v>
@@ -14049,20 +14535,23 @@
       <c r="L60" s="13">
         <v>0</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="13">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C61" s="13">
-        <v>5</v>
+      <c r="C61" s="13" t="s">
+        <v>556</v>
       </c>
       <c r="D61" s="13">
         <v>5</v>
@@ -14091,26 +14580,29 @@
       <c r="L61" s="13">
         <v>5</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="13">
+        <v>5</v>
+      </c>
+      <c r="N61" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C62" s="13">
-        <v>3</v>
+      <c r="C62" s="13" t="s">
+        <v>557</v>
       </c>
       <c r="D62" s="13">
         <v>3</v>
       </c>
       <c r="E62" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62" s="13">
         <v>5</v>
@@ -14133,29 +14625,32 @@
       <c r="L62" s="13">
         <v>5</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="13">
+        <v>5</v>
+      </c>
+      <c r="N62" s="7">
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="N62" t="s">
+      <c r="O62" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="D63" s="13">
         <v>4</v>
       </c>
-      <c r="D63" s="13">
-        <v>5</v>
-      </c>
       <c r="E63" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63" s="13">
         <v>4</v>
@@ -14178,23 +14673,26 @@
       <c r="L63" s="13">
         <v>4</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="13">
+        <v>4</v>
+      </c>
+      <c r="N63" s="7">
         <f t="shared" si="1"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="N63" t="s">
+      <c r="O63" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C64" s="13">
-        <v>5</v>
+      <c r="C64" s="13" t="s">
+        <v>559</v>
       </c>
       <c r="D64" s="13">
         <v>5</v>
@@ -14209,13 +14707,13 @@
         <v>5</v>
       </c>
       <c r="H64" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I64" s="13">
         <v>1</v>
       </c>
       <c r="J64" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K64" s="13">
         <v>5</v>
@@ -14223,23 +14721,26 @@
       <c r="L64" s="13">
         <v>5</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="13">
+        <v>5</v>
+      </c>
+      <c r="N64" s="7">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
-      <c r="N64" t="s">
+      <c r="O64" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C65" s="13">
-        <v>3</v>
+      <c r="C65" s="13" t="s">
+        <v>560</v>
       </c>
       <c r="D65" s="13">
         <v>3</v>
@@ -14268,23 +14769,26 @@
       <c r="L65" s="13">
         <v>3</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="13">
+        <v>3</v>
+      </c>
+      <c r="N65" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="N65" t="s">
+      <c r="O65" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="19">
-        <v>0</v>
+      <c r="C66" s="19" t="s">
+        <v>561</v>
       </c>
       <c r="D66" s="19">
         <v>0</v>
@@ -14313,29 +14817,32 @@
       <c r="L66" s="19">
         <v>0</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="19">
+        <v>0</v>
+      </c>
+      <c r="N66" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C67" s="13">
-        <v>1</v>
+      <c r="C67" s="13" t="s">
+        <v>562</v>
       </c>
       <c r="D67" s="13">
         <v>1</v>
       </c>
       <c r="E67" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67" s="13">
         <v>1</v>
@@ -14355,23 +14862,26 @@
       <c r="L67" s="13">
         <v>1</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="13">
+        <v>1</v>
+      </c>
+      <c r="N67" s="7">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="N67" t="s">
+      <c r="O67" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C68" s="13">
-        <v>5</v>
+      <c r="C68" s="13" t="s">
+        <v>563</v>
       </c>
       <c r="D68" s="13">
         <v>5</v>
@@ -14383,7 +14893,7 @@
         <v>5</v>
       </c>
       <c r="G68" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H68" s="13">
         <v>3</v>
@@ -14400,20 +14910,23 @@
       <c r="L68" s="13">
         <v>3</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="13">
+        <v>3</v>
+      </c>
+      <c r="N68" s="7">
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
         <v>393</v>
       </c>
-      <c r="C69">
-        <v>5</v>
+      <c r="C69" t="s">
+        <v>596</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -14442,20 +14955,23 @@
       <c r="L69">
         <v>5</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="N69" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
         <v>394</v>
       </c>
-      <c r="C70">
-        <v>5</v>
+      <c r="C70" t="s">
+        <v>564</v>
       </c>
       <c r="D70">
         <v>5</v>
@@ -14484,20 +15000,23 @@
       <c r="L70">
         <v>5</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
         <v>395</v>
       </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="C71" t="s">
+        <v>565</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -14526,20 +15045,23 @@
       <c r="L71">
         <v>0</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B72" t="s">
         <v>396</v>
       </c>
-      <c r="C72">
-        <v>5</v>
+      <c r="C72" t="s">
+        <v>566</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -14568,20 +15090,23 @@
       <c r="L72">
         <v>5</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>397</v>
       </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="C73" t="s">
+        <v>567</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -14610,20 +15135,23 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>398</v>
       </c>
-      <c r="C74">
-        <v>4</v>
+      <c r="C74" t="s">
+        <v>568</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -14652,27 +15180,30 @@
       <c r="L74">
         <v>4</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>399</v>
       </c>
-      <c r="C75">
-        <v>5</v>
+      <c r="C75" t="s">
+        <v>569</v>
       </c>
       <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
         <v>2</v>
       </c>
-      <c r="E75">
-        <v>5</v>
-      </c>
       <c r="F75">
         <v>5</v>
       </c>
@@ -14680,13 +15211,13 @@
         <v>5</v>
       </c>
       <c r="H75">
+        <v>5</v>
+      </c>
+      <c r="I75">
         <v>2</v>
       </c>
-      <c r="I75">
-        <v>3</v>
-      </c>
       <c r="J75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K75">
         <v>5</v>
@@ -14694,23 +15225,26 @@
       <c r="L75">
         <v>5</v>
       </c>
-      <c r="M75" s="2">
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75" s="2">
         <f t="shared" si="1"/>
         <v>4.2</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>400</v>
       </c>
-      <c r="C76">
-        <v>0</v>
+      <c r="C76" t="s">
+        <v>570</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -14719,14 +15253,14 @@
         <v>4</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>4</v>
       </c>
-      <c r="I76">
-        <v>5</v>
-      </c>
       <c r="J76">
         <v>5</v>
       </c>
@@ -14736,20 +15270,23 @@
       <c r="L76">
         <v>5</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76" s="2">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>401</v>
       </c>
-      <c r="C77">
-        <v>5</v>
+      <c r="C77" t="s">
+        <v>571</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -14778,20 +15315,23 @@
       <c r="L77">
         <v>5</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B78" t="s">
         <v>402</v>
       </c>
-      <c r="C78">
-        <v>5</v>
+      <c r="C78" t="s">
+        <v>572</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -14820,20 +15360,23 @@
       <c r="L78">
         <v>5</v>
       </c>
-      <c r="M78" s="2">
-        <f t="shared" ref="M78:M99" si="2">AVERAGE(C78:L78)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78" s="2">
+        <f t="shared" ref="N78:N99" si="2">AVERAGE(D78:M78)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>403</v>
       </c>
-      <c r="C79">
-        <v>4</v>
+      <c r="C79" t="s">
+        <v>573</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -14862,27 +15405,30 @@
       <c r="L79">
         <v>4</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>404</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>574</v>
+      </c>
+      <c r="D80">
         <v>2</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>4</v>
       </c>
-      <c r="E80">
-        <v>5</v>
-      </c>
       <c r="F80">
         <v>5</v>
       </c>
@@ -14899,25 +15445,28 @@
         <v>5</v>
       </c>
       <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80">
         <v>4</v>
       </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2">
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2">
         <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>405</v>
       </c>
-      <c r="C81">
-        <v>5</v>
+      <c r="C81" t="s">
+        <v>575</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -14926,16 +15475,16 @@
         <v>5</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J81">
         <v>5</v>
@@ -14946,20 +15495,23 @@
       <c r="L81">
         <v>5</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81" s="2">
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>406</v>
       </c>
-      <c r="C82">
-        <v>0</v>
+      <c r="C82" t="s">
+        <v>576</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -14988,20 +15540,23 @@
       <c r="L82">
         <v>0</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>407</v>
       </c>
-      <c r="C83">
-        <v>0</v>
+      <c r="C83" t="s">
+        <v>577</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -15030,20 +15585,23 @@
       <c r="L83">
         <v>0</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>408</v>
       </c>
-      <c r="C84">
-        <v>0</v>
+      <c r="C84" t="s">
+        <v>578</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -15072,20 +15630,23 @@
       <c r="L84">
         <v>0</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>409</v>
       </c>
-      <c r="C85">
-        <v>0</v>
+      <c r="C85" t="s">
+        <v>579</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -15114,20 +15675,23 @@
       <c r="L85">
         <v>0</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>410</v>
       </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="C86" t="s">
+        <v>580</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -15156,20 +15720,23 @@
       <c r="L86">
         <v>0</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B87" t="s">
         <v>411</v>
       </c>
-      <c r="C87">
-        <v>5</v>
+      <c r="C87" t="s">
+        <v>581</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -15198,20 +15765,23 @@
       <c r="L87">
         <v>5</v>
       </c>
-      <c r="M87" s="2">
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>412</v>
       </c>
-      <c r="C88">
-        <v>5</v>
+      <c r="C88" t="s">
+        <v>582</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -15226,10 +15796,10 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J88">
         <v>5</v>
@@ -15240,20 +15810,23 @@
       <c r="L88">
         <v>5</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="N88" s="2">
         <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B89" t="s">
         <v>413</v>
       </c>
-      <c r="C89">
-        <v>1</v>
+      <c r="C89" t="s">
+        <v>583</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -15265,11 +15838,11 @@
         <v>1</v>
       </c>
       <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
         <v>2</v>
       </c>
-      <c r="H89">
-        <v>3</v>
-      </c>
       <c r="I89">
         <v>3</v>
       </c>
@@ -15282,20 +15855,23 @@
       <c r="L89">
         <v>3</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89" s="2">
         <f t="shared" si="2"/>
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B90" t="s">
         <v>414</v>
       </c>
-      <c r="C90">
-        <v>5</v>
+      <c r="C90" t="s">
+        <v>584</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -15319,25 +15895,28 @@
         <v>5</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>415</v>
       </c>
-      <c r="C91">
-        <v>5</v>
+      <c r="C91" t="s">
+        <v>585</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -15366,20 +15945,23 @@
       <c r="L91">
         <v>5</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B92" t="s">
         <v>416</v>
       </c>
-      <c r="C92">
-        <v>0</v>
+      <c r="C92" t="s">
+        <v>586</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -15408,20 +15990,23 @@
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B93" t="s">
         <v>417</v>
       </c>
-      <c r="C93">
-        <v>5</v>
+      <c r="C93" t="s">
+        <v>587</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -15450,20 +16035,23 @@
       <c r="L93">
         <v>5</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="N93" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B94" t="s">
         <v>418</v>
       </c>
-      <c r="C94">
-        <v>0</v>
+      <c r="C94" t="s">
+        <v>588</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -15492,20 +16080,23 @@
       <c r="L94">
         <v>0</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B95" t="s">
         <v>419</v>
       </c>
-      <c r="C95">
-        <v>5</v>
+      <c r="C95" t="s">
+        <v>589</v>
       </c>
       <c r="D95">
         <v>5</v>
@@ -15534,20 +16125,23 @@
       <c r="L95">
         <v>5</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B96" t="s">
         <v>420</v>
       </c>
-      <c r="C96">
-        <v>5</v>
+      <c r="C96" t="s">
+        <v>590</v>
       </c>
       <c r="D96">
         <v>5</v>
@@ -15565,7 +16159,7 @@
         <v>5</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -15576,38 +16170,41 @@
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B97" t="s">
         <v>421</v>
       </c>
-      <c r="C97">
-        <v>1</v>
+      <c r="C97" t="s">
+        <v>591</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
         <v>2</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>1</v>
@@ -15618,20 +16215,23 @@
       <c r="L97">
         <v>1</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B98" t="s">
         <v>422</v>
       </c>
-      <c r="C98">
-        <v>5</v>
+      <c r="C98" t="s">
+        <v>592</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -15660,20 +16260,23 @@
       <c r="L98">
         <v>5</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B99" t="s">
         <v>423</v>
       </c>
-      <c r="C99">
-        <v>5</v>
+      <c r="C99" t="s">
+        <v>593</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -15702,24 +16305,27 @@
       <c r="L99">
         <v>5</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B100" t="s">
         <v>424</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>594</v>
+      </c>
+      <c r="D100">
         <v>4</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
       <c r="E100">
         <v>1</v>
       </c>
@@ -15744,26 +16350,29 @@
       <c r="L100">
         <v>1</v>
       </c>
-      <c r="M100" s="2">
-        <f t="shared" ref="M100" si="3">AVERAGE(C100:L100)</f>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100" s="2">
+        <f t="shared" ref="N100" si="3">AVERAGE(D100:M100)</f>
         <v>1.3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C101" s="3">
-        <v>5</v>
+      <c r="C101" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="D101" s="3">
         <v>5</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -15786,32 +16395,565 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="1">
-        <f>AVERAGE(C101:L101)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <f>AVERAGE(D101:M101)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M102" s="2">
-        <f>AVERAGE(M2:M101)</f>
+      <c r="N102" s="2">
+        <f>AVERAGE(N2:N101)</f>
         <v>2.1190000000000002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:N102" xr:uid="{3C0F432B-03FC-452D-80AF-E56229A83A73}"/>
+  <autoFilter ref="B1:O102" xr:uid="{3C0F432B-03FC-452D-80AF-E56229A83A73}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="24"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15956,548 +17098,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:A102" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479586D-24F4-4D87-B01B-4E29F29415E8}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -16521,7 +17133,7 @@
         <v>453</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16529,7 +17141,7 @@
         <v>454</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -16537,7 +17149,7 @@
         <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16545,7 +17157,7 @@
         <v>456</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16553,7 +17165,7 @@
         <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16569,7 +17181,7 @@
         <v>459</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -16585,7 +17197,7 @@
         <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16593,7 +17205,7 @@
         <v>462</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -16609,7 +17221,7 @@
         <v>464</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F14" s="24"/>
     </row>
@@ -16618,7 +17230,7 @@
         <v>465</v>
       </c>
       <c r="B15" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16626,15 +17238,15 @@
         <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>467</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>486</v>
+      <c r="B17" s="26" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -16667,7 +17279,7 @@
         <v>471</v>
       </c>
       <c r="B21" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -16675,7 +17287,7 @@
         <v>472</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -16683,15 +17295,15 @@
         <v>473</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>474</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>97</v>
+      <c r="B24" t="s">
+        <v>494</v>
       </c>
       <c r="D24" s="24"/>
     </row>
@@ -16699,17 +17311,17 @@
       <c r="A25" t="s">
         <v>475</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="D25" s="26"/>
+      <c r="B25" t="s">
+        <v>482</v>
+      </c>
+      <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data/ChedrahuiQA_Lexico.xlsx
+++ b/data/ChedrahuiQA_Lexico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atcon\Desktop\Playwright\playwright-piloto2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47743A6-3BFF-4522-BB36-404801A1E14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD2D52-679D-48B7-AC23-775FBD799EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resto" sheetId="8" r:id="rId1"/>
@@ -24,8 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bajo CTR'!$A$1:$P$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Errores Ortográficos'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Frecuencia Alta'!$A$1:$A$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Long Tail'!$A$1:$A$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Frecuencia Alta'!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Long Tail'!$A$1:$A$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Resultados Vacíos'!$A$1:$M$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Semánticos!$B$1:$O$1</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="592">
   <si>
     <t>QA que ejecuta</t>
   </si>
@@ -1823,6 +1823,9 @@
   </si>
   <si>
     <t>LONG TAIL</t>
+  </si>
+  <si>
+    <t>ERRORES ORTOGRAFICOS</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2035,6 +2038,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2369,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BE9165-B482-4853-BB17-F774537AC63D}">
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:A167"/>
+    <sheetView topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6470,373 +6474,677 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="33" t="s">
-        <v>48</v>
+      <c r="A94" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="33" t="s">
-        <v>49</v>
+      <c r="A95" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
-        <v>50</v>
-      </c>
+      <c r="A96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="21"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
-        <v>51</v>
+      <c r="A97" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
-        <v>52</v>
+      <c r="A98" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
-        <v>53</v>
+      <c r="A99" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33" t="s">
-        <v>54</v>
+      <c r="A100" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="33" t="s">
-        <v>55</v>
+      <c r="A101" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="33" t="s">
-        <v>56</v>
+      <c r="A102" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
-        <v>57</v>
+      <c r="A103" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>58</v>
+      <c r="A104" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="33" t="s">
-        <v>59</v>
+      <c r="A105" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="33" t="s">
-        <v>60</v>
+      <c r="A106" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="33" t="s">
-        <v>61</v>
+      <c r="A107" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="33" t="s">
-        <v>62</v>
+      <c r="A108" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="33" t="s">
-        <v>63</v>
+      <c r="A109" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="36" t="s">
-        <v>64</v>
+      <c r="A110" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="33" t="s">
-        <v>65</v>
+      <c r="A111" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="33" t="s">
-        <v>66</v>
+      <c r="A112" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="33" t="s">
-        <v>67</v>
+      <c r="A113" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="33" t="s">
-        <v>68</v>
+      <c r="A114" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="33" t="s">
-        <v>69</v>
+      <c r="A115" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33" t="s">
-        <v>70</v>
+      <c r="A116" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="33" t="s">
-        <v>71</v>
+      <c r="A117" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="33" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="33" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" s="37" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" s="37" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" s="37" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" s="37" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" s="37" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" s="37" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" s="37" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" s="37" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" s="37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" s="37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" s="37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" s="37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="38" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="38" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="39" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="39" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="39" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="39" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="39" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="39" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="39" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="39" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="39" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="39" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="39" t="s">
         <v>441</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B193" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B194" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B195" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B196" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B197" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B198" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A199" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B200" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B201" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="B202" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>452</v>
+      </c>
+      <c r="B203" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>453</v>
+      </c>
+      <c r="B204" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>455</v>
+      </c>
+      <c r="B206" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>456</v>
+      </c>
+      <c r="B207" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>457</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -16314,7 +16622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0F432B-03FC-452D-80AF-E56229A83A73}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -16781,10 +17089,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD250"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16843,138 +17151,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A34" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A10" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17033,68 +17221,18 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A20" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}"/>
+  <autoFilter ref="A1:A10" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479586D-24F4-4D87-B01B-4E29F29415E8}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A10" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17103,7 +17241,7 @@
     <col min="2" max="2" width="90.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -17111,7 +17249,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>443</v>
       </c>
@@ -17119,7 +17257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>444</v>
       </c>
@@ -17127,7 +17265,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>445</v>
       </c>
@@ -17135,7 +17273,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>446</v>
       </c>
@@ -17143,7 +17281,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>447</v>
       </c>
@@ -17151,7 +17289,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>448</v>
       </c>
@@ -17159,7 +17297,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>449</v>
       </c>
@@ -17167,7 +17305,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>450</v>
       </c>
@@ -17175,7 +17313,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>451</v>
       </c>
@@ -17183,140 +17321,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>454</v>
-      </c>
-      <c r="B13" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B14" t="s">
-        <v>472</v>
-      </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>457</v>
-      </c>
-      <c r="B16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>459</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>460</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>461</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>462</v>
-      </c>
-      <c r="B21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>463</v>
-      </c>
-      <c r="B22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>464</v>
-      </c>
-      <c r="B23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>465</v>
-      </c>
-      <c r="B24" t="s">
-        <v>485</v>
-      </c>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>466</v>
-      </c>
-      <c r="B25" t="s">
-        <v>473</v>
-      </c>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B26" xr:uid="{A479586D-24F4-4D87-B01B-4E29F29415E8}"/>
+  <autoFilter ref="A1:B10" xr:uid="{A479586D-24F4-4D87-B01B-4E29F29415E8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/ChedrahuiQA_Lexico.xlsx
+++ b/data/ChedrahuiQA_Lexico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atcon\Desktop\Playwright\playwright-piloto2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD2D52-679D-48B7-AC23-775FBD799EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B1E94-FDA6-4F34-A429-C182076168CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resto" sheetId="8" r:id="rId1"/>
@@ -1498,12 +1498,6 @@
     <t>cerveza, Corona, Modelo, Victoria, Heineken</t>
   </si>
   <si>
-    <t>lavadora, centro de lavado, Mabe, Whirlpool, LG, Samsung</t>
-  </si>
-  <si>
-    <t>pañales, pañal, Huggies, Pampers, KleenBebé</t>
-  </si>
-  <si>
     <t>refrigerador, nevera, frigobar</t>
   </si>
   <si>
@@ -1516,9 +1510,6 @@
     <t>suavizante, suavitel, aromatizante de ropa, Downy, Ensueño, detergente</t>
   </si>
   <si>
-    <t>mascarilla capilar, acondicionador, aceite capilar, serum capilar, keratina, tratamiento leave-in</t>
-  </si>
-  <si>
     <t>jabón, shampoo, acondicionador, papel higiénico, pasta dental, cepillo dental, hilo dental, enjuague bucal, cotonetes, crema corporal</t>
   </si>
   <si>
@@ -1826,6 +1817,15 @@
   </si>
   <si>
     <t>ERRORES ORTOGRAFICOS</t>
+  </si>
+  <si>
+    <t>lavadora, centro de lavado</t>
+  </si>
+  <si>
+    <t>mascarilla capilar, acondicionador, aceite capilar, serum capilar, keratina, tratamiento leave-in, iggkjhkjh</t>
+  </si>
+  <si>
+    <t>pañales, pañal, Pampers, KleenBebé</t>
   </si>
 </sst>
 </file>
@@ -2375,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BE9165-B482-4853-BB17-F774537AC63D}">
   <dimension ref="A1:N218"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
@@ -2383,7 +2383,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2394,7 +2394,7 @@
         <v>350</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D2" s="25">
         <v>5</v>
@@ -2439,7 +2439,7 @@
         <v>351</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D3" s="25">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>352</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D4" s="25">
         <v>2</v>
@@ -2529,7 +2529,7 @@
         <v>353</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D5" s="25">
         <v>4</v>
@@ -2574,7 +2574,7 @@
         <v>354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -2619,7 +2619,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D7" s="25">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>356</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>357</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D9" s="25">
         <v>5</v>
@@ -2753,7 +2753,7 @@
         <v>358</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D10" s="25">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>359</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D11" s="25">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>360</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D12" s="25">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>361</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D13" s="25">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>362</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D14" s="25">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>363</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D15" s="25">
         <v>5</v>
@@ -3023,7 +3023,7 @@
         <v>364</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D16" s="25">
         <v>1</v>
@@ -3068,7 +3068,7 @@
         <v>365</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D17" s="25">
         <v>5</v>
@@ -3113,7 +3113,7 @@
         <v>366</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D18" s="25">
         <v>5</v>
@@ -3158,7 +3158,7 @@
         <v>367</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D19" s="25">
         <v>5</v>
@@ -3203,7 +3203,7 @@
         <v>368</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D20" s="25">
         <v>3</v>
@@ -3248,7 +3248,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D21" s="25">
         <v>5</v>
@@ -3293,7 +3293,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D22" s="25">
         <v>1</v>
@@ -3338,7 +3338,7 @@
         <v>371</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>372</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D24" s="25">
         <v>5</v>
@@ -3428,7 +3428,7 @@
         <v>373</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D25" s="25">
         <v>2</v>
@@ -3473,7 +3473,7 @@
         <v>374</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D26" s="25">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>375</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -3563,7 +3563,7 @@
         <v>376</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D28" s="25">
         <v>5</v>
@@ -3608,7 +3608,7 @@
         <v>377</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D29" s="25">
         <v>3</v>
@@ -3653,7 +3653,7 @@
         <v>378</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D30" s="25">
         <v>4</v>
@@ -3698,7 +3698,7 @@
         <v>379</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D31" s="25">
         <v>5</v>
@@ -3743,7 +3743,7 @@
         <v>380</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D32" s="25">
         <v>3</v>
@@ -3788,7 +3788,7 @@
         <v>381</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D33" s="28">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>382</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D34" s="25">
         <v>1</v>
@@ -3878,7 +3878,7 @@
         <v>383</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D35" s="25">
         <v>5</v>
@@ -3923,7 +3923,7 @@
         <v>384</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D36" s="21">
         <v>5</v>
@@ -3968,7 +3968,7 @@
         <v>385</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D37" s="21">
         <v>5</v>
@@ -4013,7 +4013,7 @@
         <v>386</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D38" s="21">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>387</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D39" s="21">
         <v>5</v>
@@ -4103,7 +4103,7 @@
         <v>388</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D40" s="21">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>389</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D41" s="21">
         <v>4</v>
@@ -4193,7 +4193,7 @@
         <v>390</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D42" s="21">
         <v>5</v>
@@ -4238,7 +4238,7 @@
         <v>391</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -4283,7 +4283,7 @@
         <v>392</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D44" s="21">
         <v>5</v>
@@ -4328,7 +4328,7 @@
         <v>393</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D45" s="21">
         <v>5</v>
@@ -4373,7 +4373,7 @@
         <v>394</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D46" s="21">
         <v>4</v>
@@ -4418,7 +4418,7 @@
         <v>395</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D47" s="21">
         <v>2</v>
@@ -4463,7 +4463,7 @@
         <v>396</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D48" s="21">
         <v>5</v>
@@ -4508,7 +4508,7 @@
         <v>397</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D49" s="21">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>398</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
@@ -4598,7 +4598,7 @@
         <v>399</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>400</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>401</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>402</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D54" s="21">
         <v>5</v>
@@ -4778,7 +4778,7 @@
         <v>403</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D55" s="21">
         <v>5</v>
@@ -4823,7 +4823,7 @@
         <v>404</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D56" s="21">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         <v>405</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D57" s="21">
         <v>5</v>
@@ -4913,7 +4913,7 @@
         <v>406</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D58" s="21">
         <v>5</v>
@@ -4958,7 +4958,7 @@
         <v>407</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -5003,7 +5003,7 @@
         <v>408</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D60" s="21">
         <v>5</v>
@@ -5048,7 +5048,7 @@
         <v>409</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>410</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D62" s="21">
         <v>5</v>
@@ -5138,7 +5138,7 @@
         <v>411</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D63" s="21">
         <v>5</v>
@@ -5183,7 +5183,7 @@
         <v>412</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D64" s="21">
         <v>1</v>
@@ -5228,7 +5228,7 @@
         <v>413</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D65" s="21">
         <v>5</v>
@@ -5273,7 +5273,7 @@
         <v>414</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D66" s="21">
         <v>5</v>
@@ -5318,7 +5318,7 @@
         <v>415</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D67" s="21">
         <v>4</v>
@@ -5363,7 +5363,7 @@
         <v>416</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D68" s="22">
         <v>5</v>
@@ -5408,7 +5408,7 @@
         <v>326</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -5453,7 +5453,7 @@
         <v>327</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D70" s="33">
         <v>3</v>
@@ -5497,7 +5497,7 @@
         <v>328</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -5541,7 +5541,7 @@
         <v>329</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>330</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D74" s="33">
         <v>1</v>
@@ -5674,7 +5674,7 @@
         <v>332</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
@@ -5718,7 +5718,7 @@
         <v>333</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D76" s="33">
         <v>0</v>
@@ -5763,7 +5763,7 @@
         <v>334</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D77" s="33">
         <v>5</v>
@@ -5807,7 +5807,7 @@
         <v>335</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D78" s="33">
         <v>5</v>
@@ -5851,7 +5851,7 @@
         <v>336</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D79" s="33">
         <v>0</v>
@@ -5896,7 +5896,7 @@
         <v>337</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D80" s="33">
         <v>5</v>
@@ -5940,7 +5940,7 @@
         <v>338</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D81" s="33">
         <v>0</v>
@@ -5985,7 +5985,7 @@
         <v>339</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -6029,7 +6029,7 @@
         <v>340</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D83" s="33">
         <v>0</v>
@@ -6074,7 +6074,7 @@
         <v>341</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D84" s="33">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>342</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D85" s="33">
         <v>5</v>
@@ -6163,7 +6163,7 @@
         <v>343</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
@@ -6208,7 +6208,7 @@
         <v>344</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D87" s="33">
         <v>1</v>
@@ -6253,7 +6253,7 @@
         <v>345</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D88" s="33">
         <v>0</v>
@@ -6298,7 +6298,7 @@
         <v>346</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D89" s="33">
         <v>3</v>
@@ -6342,7 +6342,7 @@
         <v>347</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D90" s="33">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>348</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D91" s="33">
         <v>0</v>
@@ -6432,7 +6432,7 @@
         <v>349</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D92" s="33">
         <v>5</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="30" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -6931,7 +6931,7 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
@@ -7043,7 +7043,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="40" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B202" t="s">
         <v>57</v>
@@ -7054,7 +7054,7 @@
         <v>452</v>
       </c>
       <c r="B203" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -7070,7 +7070,7 @@
         <v>454</v>
       </c>
       <c r="B205" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -7078,7 +7078,7 @@
         <v>455</v>
       </c>
       <c r="B206" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -16623,7 +16623,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16685,7 +16685,7 @@
         <v>317</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>488</v>
+        <v>590</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -16730,7 +16730,7 @@
         <v>318</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -16774,7 +16774,7 @@
         <v>319</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -16819,7 +16819,7 @@
         <v>320</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -16864,7 +16864,7 @@
         <v>321</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -16909,7 +16909,7 @@
         <v>322</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -16954,7 +16954,7 @@
         <v>323</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -16999,7 +16999,7 @@
         <v>324</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -17044,7 +17044,7 @@
         <v>325</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -17092,7 +17092,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17161,8 +17161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17231,14 +17231,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479586D-24F4-4D87-B01B-4E29F29415E8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A2:A10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" customWidth="1"/>
-    <col min="2" max="2" width="90.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -17270,7 +17270,7 @@
         <v>445</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -17286,7 +17286,7 @@
         <v>447</v>
       </c>
       <c r="B6" t="s">
-        <v>483</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -17294,7 +17294,7 @@
         <v>448</v>
       </c>
       <c r="B7" t="s">
-        <v>482</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">

--- a/data/ChedrahuiQA_Lexico.xlsx
+++ b/data/ChedrahuiQA_Lexico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atcon\Desktop\Playwright\playwright-piloto2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2B1E94-FDA6-4F34-A429-C182076168CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471E1BE7-EA53-4D2E-9F24-C536442A7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resto" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Bajo CTR'!$A$1:$P$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Errores Ortográficos'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Frecuencia Alta'!$A$1:$A$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Long Tail'!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Long Tail'!$A$1:$A$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Resultados Vacíos'!$A$1:$M$102</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Semánticos!$B$1:$O$1</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="585">
   <si>
     <t>QA que ejecuta</t>
   </si>
@@ -1303,33 +1303,6 @@
     <t>Caldo de pollo para sopa</t>
   </si>
   <si>
-    <t>shampoo para cabello teñido sin sulfatos</t>
-  </si>
-  <si>
-    <t>papel higiénico de 16 rollos triple hoja</t>
-  </si>
-  <si>
-    <t>café soluble descafeinado frasco grande</t>
-  </si>
-  <si>
-    <t>leche deslactosada light de un litro</t>
-  </si>
-  <si>
-    <t>refrigerador de dos puertas con despachador de hielo</t>
-  </si>
-  <si>
-    <t>desodorante en aerosol para hombre sin alcohol</t>
-  </si>
-  <si>
-    <t>pañales para bebé etapa 4 caja con 120</t>
-  </si>
-  <si>
-    <t>lavadora automática de 20 kg con carga frontal</t>
-  </si>
-  <si>
-    <t>yogurt griego sin azúcar sabor natural</t>
-  </si>
-  <si>
     <t>aceite de canola para freír 3 litros</t>
   </si>
   <si>
@@ -1826,6 +1799,12 @@
   </si>
   <si>
     <t>pañales, pañal, Pampers, KleenBebé</t>
+  </si>
+  <si>
+    <t>impresoras</t>
+  </si>
+  <si>
+    <t>samsung</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2039,6 +2018,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2383,7 +2363,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2394,7 +2374,7 @@
         <v>350</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D2" s="25">
         <v>5</v>
@@ -2439,7 +2419,7 @@
         <v>351</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D3" s="25">
         <v>0</v>
@@ -2484,7 +2464,7 @@
         <v>352</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D4" s="25">
         <v>2</v>
@@ -2529,7 +2509,7 @@
         <v>353</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D5" s="25">
         <v>4</v>
@@ -2574,7 +2554,7 @@
         <v>354</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D6" s="25">
         <v>1</v>
@@ -2619,7 +2599,7 @@
         <v>355</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D7" s="25">
         <v>0</v>
@@ -2664,7 +2644,7 @@
         <v>356</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D8" s="25">
         <v>1</v>
@@ -2708,7 +2688,7 @@
         <v>357</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D9" s="25">
         <v>5</v>
@@ -2753,7 +2733,7 @@
         <v>358</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D10" s="25">
         <v>0</v>
@@ -2798,7 +2778,7 @@
         <v>359</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D11" s="25">
         <v>0</v>
@@ -2843,7 +2823,7 @@
         <v>360</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D12" s="25">
         <v>0</v>
@@ -2888,7 +2868,7 @@
         <v>361</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D13" s="25">
         <v>0</v>
@@ -2933,7 +2913,7 @@
         <v>362</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D14" s="25">
         <v>0</v>
@@ -2978,7 +2958,7 @@
         <v>363</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="D15" s="25">
         <v>5</v>
@@ -3023,7 +3003,7 @@
         <v>364</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="D16" s="25">
         <v>1</v>
@@ -3068,7 +3048,7 @@
         <v>365</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D17" s="25">
         <v>5</v>
@@ -3113,7 +3093,7 @@
         <v>366</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="D18" s="25">
         <v>5</v>
@@ -3158,7 +3138,7 @@
         <v>367</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D19" s="25">
         <v>5</v>
@@ -3203,7 +3183,7 @@
         <v>368</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D20" s="25">
         <v>3</v>
@@ -3248,7 +3228,7 @@
         <v>369</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D21" s="25">
         <v>5</v>
@@ -3293,7 +3273,7 @@
         <v>370</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D22" s="25">
         <v>1</v>
@@ -3338,7 +3318,7 @@
         <v>371</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D23" s="25">
         <v>0</v>
@@ -3383,7 +3363,7 @@
         <v>372</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D24" s="25">
         <v>5</v>
@@ -3428,7 +3408,7 @@
         <v>373</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="D25" s="25">
         <v>2</v>
@@ -3473,7 +3453,7 @@
         <v>374</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="D26" s="25">
         <v>0</v>
@@ -3518,7 +3498,7 @@
         <v>375</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="D27" s="25">
         <v>1</v>
@@ -3563,7 +3543,7 @@
         <v>376</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D28" s="25">
         <v>5</v>
@@ -3608,7 +3588,7 @@
         <v>377</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D29" s="25">
         <v>3</v>
@@ -3653,7 +3633,7 @@
         <v>378</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D30" s="25">
         <v>4</v>
@@ -3698,7 +3678,7 @@
         <v>379</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D31" s="25">
         <v>5</v>
@@ -3743,7 +3723,7 @@
         <v>380</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="D32" s="25">
         <v>3</v>
@@ -3788,7 +3768,7 @@
         <v>381</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D33" s="28">
         <v>0</v>
@@ -3833,7 +3813,7 @@
         <v>382</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D34" s="25">
         <v>1</v>
@@ -3878,7 +3858,7 @@
         <v>383</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D35" s="25">
         <v>5</v>
@@ -3923,7 +3903,7 @@
         <v>384</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D36" s="21">
         <v>5</v>
@@ -3968,7 +3948,7 @@
         <v>385</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D37" s="21">
         <v>5</v>
@@ -4013,7 +3993,7 @@
         <v>386</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D38" s="21">
         <v>0</v>
@@ -4058,7 +4038,7 @@
         <v>387</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D39" s="21">
         <v>5</v>
@@ -4103,7 +4083,7 @@
         <v>388</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D40" s="21">
         <v>0</v>
@@ -4148,7 +4128,7 @@
         <v>389</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D41" s="21">
         <v>4</v>
@@ -4193,7 +4173,7 @@
         <v>390</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D42" s="21">
         <v>5</v>
@@ -4238,7 +4218,7 @@
         <v>391</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -4283,7 +4263,7 @@
         <v>392</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D44" s="21">
         <v>5</v>
@@ -4328,7 +4308,7 @@
         <v>393</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D45" s="21">
         <v>5</v>
@@ -4373,7 +4353,7 @@
         <v>394</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D46" s="21">
         <v>4</v>
@@ -4418,7 +4398,7 @@
         <v>395</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D47" s="21">
         <v>2</v>
@@ -4463,7 +4443,7 @@
         <v>396</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D48" s="21">
         <v>5</v>
@@ -4508,7 +4488,7 @@
         <v>397</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D49" s="21">
         <v>0</v>
@@ -4553,7 +4533,7 @@
         <v>398</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D50" s="21">
         <v>0</v>
@@ -4598,7 +4578,7 @@
         <v>399</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -4643,7 +4623,7 @@
         <v>400</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -4688,7 +4668,7 @@
         <v>401</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -4733,7 +4713,7 @@
         <v>402</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D54" s="21">
         <v>5</v>
@@ -4778,7 +4758,7 @@
         <v>403</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D55" s="21">
         <v>5</v>
@@ -4823,7 +4803,7 @@
         <v>404</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D56" s="21">
         <v>1</v>
@@ -4868,7 +4848,7 @@
         <v>405</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D57" s="21">
         <v>5</v>
@@ -4913,7 +4893,7 @@
         <v>406</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D58" s="21">
         <v>5</v>
@@ -4958,7 +4938,7 @@
         <v>407</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -5003,7 +4983,7 @@
         <v>408</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D60" s="21">
         <v>5</v>
@@ -5048,7 +5028,7 @@
         <v>409</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -5093,7 +5073,7 @@
         <v>410</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D62" s="21">
         <v>5</v>
@@ -5138,7 +5118,7 @@
         <v>411</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D63" s="21">
         <v>5</v>
@@ -5183,7 +5163,7 @@
         <v>412</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D64" s="21">
         <v>1</v>
@@ -5228,7 +5208,7 @@
         <v>413</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D65" s="21">
         <v>5</v>
@@ -5273,7 +5253,7 @@
         <v>414</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D66" s="21">
         <v>5</v>
@@ -5318,7 +5298,7 @@
         <v>415</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D67" s="21">
         <v>4</v>
@@ -5363,7 +5343,7 @@
         <v>416</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D68" s="22">
         <v>5</v>
@@ -5408,7 +5388,7 @@
         <v>326</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -5453,7 +5433,7 @@
         <v>327</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D70" s="33">
         <v>3</v>
@@ -5497,7 +5477,7 @@
         <v>328</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -5541,7 +5521,7 @@
         <v>329</v>
       </c>
       <c r="C72" s="33" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
@@ -5585,7 +5565,7 @@
         <v>330</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
@@ -5629,7 +5609,7 @@
         <v>331</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D74" s="33">
         <v>1</v>
@@ -5674,7 +5654,7 @@
         <v>332</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
@@ -5718,7 +5698,7 @@
         <v>333</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="D76" s="33">
         <v>0</v>
@@ -5763,7 +5743,7 @@
         <v>334</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D77" s="33">
         <v>5</v>
@@ -5807,7 +5787,7 @@
         <v>335</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D78" s="33">
         <v>5</v>
@@ -5851,7 +5831,7 @@
         <v>336</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="D79" s="33">
         <v>0</v>
@@ -5896,7 +5876,7 @@
         <v>337</v>
       </c>
       <c r="C80" s="33" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D80" s="33">
         <v>5</v>
@@ -5940,7 +5920,7 @@
         <v>338</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D81" s="33">
         <v>0</v>
@@ -5985,7 +5965,7 @@
         <v>339</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -6029,7 +6009,7 @@
         <v>340</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D83" s="33">
         <v>0</v>
@@ -6074,7 +6054,7 @@
         <v>341</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="D84" s="33">
         <v>0</v>
@@ -6119,7 +6099,7 @@
         <v>342</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D85" s="33">
         <v>5</v>
@@ -6163,7 +6143,7 @@
         <v>343</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
@@ -6208,7 +6188,7 @@
         <v>344</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D87" s="33">
         <v>1</v>
@@ -6253,7 +6233,7 @@
         <v>345</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D88" s="33">
         <v>0</v>
@@ -6298,7 +6278,7 @@
         <v>346</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D89" s="33">
         <v>3</v>
@@ -6342,7 +6322,7 @@
         <v>347</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D90" s="33">
         <v>0</v>
@@ -6387,7 +6367,7 @@
         <v>348</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D91" s="33">
         <v>0</v>
@@ -6432,7 +6412,7 @@
         <v>349</v>
       </c>
       <c r="C92" s="35" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D92" s="33">
         <v>5</v>
@@ -6470,7 +6450,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="30" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -6931,103 +6911,103 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="39" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="39" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="39" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="39" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="39" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="39" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B193" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B194" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="B195" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B196" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B197" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B198" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B199" s="23" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B200" t="s">
         <v>54</v>
@@ -7035,7 +7015,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B201" t="s">
         <v>55</v>
@@ -7043,7 +7023,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="40" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B202" t="s">
         <v>57</v>
@@ -7051,100 +7031,100 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B203" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B204" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B205" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B206" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B207" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -16641,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -16685,7 +16665,7 @@
         <v>317</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -16730,7 +16710,7 @@
         <v>318</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -16774,7 +16754,7 @@
         <v>319</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -16819,7 +16799,7 @@
         <v>320</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -16864,7 +16844,7 @@
         <v>321</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D6" s="9">
         <v>1</v>
@@ -16909,7 +16889,7 @@
         <v>322</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -16954,7 +16934,7 @@
         <v>323</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -16999,7 +16979,7 @@
         <v>324</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -17044,7 +17024,7 @@
         <v>325</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -17159,10 +17139,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17170,60 +17150,28 @@
     <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>425</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A10" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}"/>
+  <autoFilter ref="A1" xr:uid="{28555630-8AA8-4C83-B7EB-C61073BD67A5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17231,8 +17179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A479586D-24F4-4D87-B01B-4E29F29415E8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17246,12 +17194,12 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -17259,63 +17207,63 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
